--- a/Optimization_analysis/my picks/jan_my_chosen_windows.xlsx
+++ b/Optimization_analysis/my picks/jan_my_chosen_windows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Liikurserv\PycharmProjects\1500_count\Optimization_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vova deduskin lap\PycharmProjects\1500_count\Optimization_analysis\my picks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3968458C-8C4F-4804-A4C1-E57641B84FAA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85E09E-2725-480C-B562-E4FD269AE329}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34425" xr2:uid="{8331DCEF-ADD7-4A31-AA36-552B225C8539}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>SourceFile</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>TargetMonth</t>
-  </si>
-  <si>
-    <t>0130 0200.xlsx_all_month_specific_rows.xlsx</t>
   </si>
   <si>
     <t>0200 0230.xlsx_all_month_specific_rows.xlsx</t>
@@ -542,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DC1E9-9921-4FE5-98FD-3521D1872C8D}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,31 +632,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5733.5</v>
+        <v>5357.5</v>
       </c>
       <c r="D2">
-        <v>733.5</v>
+        <v>357.5</v>
       </c>
       <c r="E2">
-        <v>36.674999999999997</v>
+        <v>13.240741</v>
       </c>
       <c r="F2">
-        <v>3.7836810000000001</v>
+        <v>1.718593</v>
       </c>
       <c r="G2">
-        <v>5.6423079999999999</v>
+        <v>1.5783659999999999</v>
       </c>
       <c r="H2">
-        <v>17.303948999999999</v>
+        <v>11.178807000000001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.2812999999999999</v>
+        <v>4.4722999999999997</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -709,31 +706,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5357.5</v>
+        <v>5135.5</v>
       </c>
       <c r="D3">
-        <v>357.5</v>
+        <v>135.5</v>
       </c>
       <c r="E3">
-        <v>13.240741</v>
+        <v>7.5277779999999996</v>
       </c>
       <c r="F3">
-        <v>1.718593</v>
+        <v>1.5221579999999999</v>
       </c>
       <c r="G3">
-        <v>1.5783659999999999</v>
+        <v>1.1106560000000001</v>
       </c>
       <c r="H3">
-        <v>11.178807000000001</v>
+        <v>8.2018749999999994</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.4722999999999997</v>
+        <v>2.38</v>
       </c>
       <c r="K3">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -783,31 +780,31 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>5135.5</v>
+        <v>5107</v>
       </c>
       <c r="D4">
-        <v>135.5</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>7.5277779999999996</v>
+        <v>4.6521739999999996</v>
       </c>
       <c r="F4">
-        <v>1.5221579999999999</v>
+        <v>1.2491270000000001</v>
       </c>
       <c r="G4">
-        <v>1.1106560000000001</v>
+        <v>0.55874699999999999</v>
       </c>
       <c r="H4">
-        <v>8.2018749999999994</v>
+        <v>5.6127479999999998</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.38</v>
+        <v>3.7682000000000002</v>
       </c>
       <c r="K4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -857,31 +854,31 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>5107</v>
+        <v>5232.5</v>
       </c>
       <c r="D5">
-        <v>107</v>
+        <v>232.5</v>
       </c>
       <c r="E5">
-        <v>4.6521739999999996</v>
+        <v>17.884615</v>
       </c>
       <c r="F5">
-        <v>1.2491270000000001</v>
+        <v>2.3556849999999998</v>
       </c>
       <c r="G5">
-        <v>0.55874699999999999</v>
+        <v>1.7953669999999999</v>
       </c>
       <c r="H5">
-        <v>5.6127479999999998</v>
+        <v>6.8641459999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.7682000000000002</v>
+        <v>2.4274</v>
       </c>
       <c r="K5">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -931,31 +928,31 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5232.5</v>
+        <v>5441</v>
       </c>
       <c r="D6">
-        <v>232.5</v>
+        <v>441</v>
       </c>
       <c r="E6">
-        <v>17.884615</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>2.3556849999999998</v>
+        <v>2.5206900000000001</v>
       </c>
       <c r="G6">
-        <v>1.7953669999999999</v>
+        <v>3.0413790000000001</v>
       </c>
       <c r="H6">
-        <v>6.8641459999999999</v>
+        <v>15.671822000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.4274</v>
+        <v>2.6979000000000002</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1005,31 +1002,31 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>5441</v>
+        <v>5283</v>
       </c>
       <c r="D7">
-        <v>441</v>
+        <v>283</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>21.769231000000001</v>
       </c>
       <c r="F7">
-        <v>2.5206900000000001</v>
+        <v>1.648339</v>
       </c>
       <c r="G7">
-        <v>3.0413790000000001</v>
+        <v>0.813218</v>
       </c>
       <c r="H7">
-        <v>15.671822000000001</v>
+        <v>2.543777</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.6979000000000002</v>
+        <v>6.8390000000000004</v>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1079,31 +1076,31 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5283</v>
+        <v>5845.5</v>
       </c>
       <c r="D8">
-        <v>283</v>
+        <v>845.5</v>
       </c>
       <c r="E8">
-        <v>21.769231000000001</v>
+        <v>49.735294000000003</v>
       </c>
       <c r="F8">
-        <v>1.648339</v>
+        <v>4.2394639999999999</v>
       </c>
       <c r="G8">
-        <v>0.813218</v>
+        <v>4.6202189999999996</v>
       </c>
       <c r="H8">
-        <v>2.543777</v>
+        <v>17.056035000000001</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.8390000000000004</v>
+        <v>3.5823</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1145,7 +1142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1153,31 +1150,31 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>5845.5</v>
+        <v>5489.5</v>
       </c>
       <c r="D9">
-        <v>845.5</v>
+        <v>489.5</v>
       </c>
       <c r="E9">
-        <v>49.735294000000003</v>
+        <v>34.964286000000001</v>
       </c>
       <c r="F9">
-        <v>4.2394639999999999</v>
+        <v>2.8471700000000002</v>
       </c>
       <c r="G9">
-        <v>4.6202189999999996</v>
+        <v>2.0395829999999999</v>
       </c>
       <c r="H9">
-        <v>17.056035000000001</v>
+        <v>7.6045670000000003</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.5823</v>
+        <v>4.3014999999999999</v>
       </c>
       <c r="K9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1219,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1227,31 +1224,31 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>5489.5</v>
+        <v>5499.5</v>
       </c>
       <c r="D10">
-        <v>489.5</v>
+        <v>499.5</v>
       </c>
       <c r="E10">
-        <v>34.964286000000001</v>
+        <v>20.8125</v>
       </c>
       <c r="F10">
-        <v>2.8471700000000002</v>
+        <v>2.2661600000000002</v>
       </c>
       <c r="G10">
-        <v>2.0395829999999999</v>
+        <v>2.4666670000000002</v>
       </c>
       <c r="H10">
-        <v>7.6045670000000003</v>
+        <v>21.018701</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.3014999999999999</v>
+        <v>3.8344999999999998</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1301,31 +1298,31 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>5499.5</v>
+        <v>5269</v>
       </c>
       <c r="D11">
-        <v>499.5</v>
+        <v>269</v>
       </c>
       <c r="E11">
-        <v>20.8125</v>
+        <v>15.823529000000001</v>
       </c>
       <c r="F11">
-        <v>2.2661600000000002</v>
+        <v>2.0487329999999999</v>
       </c>
       <c r="G11">
-        <v>2.4666670000000002</v>
+        <v>1.568513</v>
       </c>
       <c r="H11">
-        <v>21.018701</v>
+        <v>13.980040000000001</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.8344999999999998</v>
+        <v>3.1522999999999999</v>
       </c>
       <c r="K11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1375,31 +1372,31 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>5269</v>
+        <v>6528.5</v>
       </c>
       <c r="D12">
-        <v>269</v>
+        <v>1528.5</v>
       </c>
       <c r="E12">
-        <v>15.823529000000001</v>
+        <v>72.785713999999999</v>
       </c>
       <c r="F12">
-        <v>2.0487329999999999</v>
+        <v>4.0357500000000002</v>
       </c>
       <c r="G12">
-        <v>1.568513</v>
+        <v>6.0415020000000004</v>
       </c>
       <c r="H12">
-        <v>13.980040000000001</v>
+        <v>34.078716</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.1522999999999999</v>
+        <v>4.2568000000000001</v>
       </c>
       <c r="K12">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1449,31 +1446,31 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>6528.5</v>
+        <v>5735.5</v>
       </c>
       <c r="D13">
-        <v>1528.5</v>
+        <v>735.5</v>
       </c>
       <c r="E13">
-        <v>72.785713999999999</v>
+        <v>38.710526000000002</v>
       </c>
       <c r="F13">
-        <v>4.0357500000000002</v>
+        <v>2.5834229999999998</v>
       </c>
       <c r="G13">
-        <v>6.0415020000000004</v>
+        <v>2.5627179999999998</v>
       </c>
       <c r="H13">
-        <v>34.078716</v>
+        <v>17.089068999999999</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.2568000000000001</v>
+        <v>5.3300999999999998</v>
       </c>
       <c r="K13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1523,28 +1520,28 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>5735.5</v>
+        <v>5384.5</v>
       </c>
       <c r="D14">
-        <v>735.5</v>
+        <v>384.5</v>
       </c>
       <c r="E14">
-        <v>38.710526000000002</v>
+        <v>20.236841999999999</v>
       </c>
       <c r="F14">
-        <v>2.5834229999999998</v>
+        <v>1.628268</v>
       </c>
       <c r="G14">
-        <v>2.5627179999999998</v>
+        <v>0.92650599999999994</v>
       </c>
       <c r="H14">
-        <v>17.089068999999999</v>
+        <v>8.8785550000000004</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.3300999999999998</v>
+        <v>7.6624999999999996</v>
       </c>
       <c r="K14">
         <v>19</v>
@@ -1589,92 +1586,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>5384.5</v>
-      </c>
-      <c r="D15">
-        <v>384.5</v>
-      </c>
-      <c r="E15">
-        <v>20.236841999999999</v>
-      </c>
-      <c r="F15">
-        <v>1.628268</v>
-      </c>
-      <c r="G15">
-        <v>0.92650599999999994</v>
-      </c>
-      <c r="H15">
-        <v>8.8785550000000004</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>7.6624999999999996</v>
-      </c>
-      <c r="K15">
-        <v>19</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
-      </c>
-      <c r="T15" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" t="b">
-        <v>0</v>
-      </c>
-      <c r="V15" t="b">
-        <v>0</v>
-      </c>
-      <c r="W15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:W15">
+  <conditionalFormatting sqref="L1:W14">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D15">
+  <conditionalFormatting sqref="D1:D14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J15">
+  <conditionalFormatting sqref="J2:J14">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
